--- a/background info/health regimes.xlsx
+++ b/background info/health regimes.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$C$2</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$C$28</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
@@ -29,7 +29,7 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$B$2</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$D$28</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -40,7 +40,7 @@
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_val" localSheetId="0" hidden="1">350.5</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">50</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>very poor</t>
   </si>
@@ -122,6 +122,33 @@
   </si>
   <si>
     <t>Definition from study</t>
+  </si>
+  <si>
+    <t>cancer scale</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Fair</t>
+  </si>
+  <si>
+    <t>definition from study</t>
+  </si>
+  <si>
+    <t>Dangerous</t>
+  </si>
+  <si>
+    <t>Risky</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Very Poor</t>
   </si>
 </sst>
 </file>
@@ -445,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" activeCellId="2" sqref="A32:XFD32 A30:XFD30 A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="3">
-        <f>0.0000000000000004*C2^4-0.00000000002*C2^3+0.0000003*C2^2+0.0014*C2</f>
+        <f t="shared" ref="B2:B7" si="0">0.0000000000000004*C2^4-0.00000000002*C2^3+0.0000003*C2^2+0.0014*C2</f>
         <v>350.50006211551454</v>
       </c>
       <c r="C2" s="1">
@@ -495,14 +522,14 @@
         <v>8</v>
       </c>
       <c r="B3" s="3">
-        <f>0.0000000000000004*C3^4-0.00000000002*C3^3+0.0000003*C3^2+0.0014*C3</f>
+        <f t="shared" si="0"/>
         <v>250.50009671889623</v>
       </c>
       <c r="C3" s="1">
         <v>39021.193830603101</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D14" si="0">B3/10*36</f>
+        <f t="shared" ref="D3:D14" si="1">B3/10*36</f>
         <v>901.80034818802642</v>
       </c>
     </row>
@@ -511,14 +538,14 @@
         <v>9</v>
       </c>
       <c r="B4" s="3">
-        <f>0.0000000000000004*C4^4-0.00000000002*C4^3+0.0000003*C4^2+0.0014*C4</f>
+        <f t="shared" si="0"/>
         <v>150.49999916729757</v>
       </c>
       <c r="C4" s="1">
         <v>34482.861521481842</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>541.7999970022712</v>
       </c>
     </row>
@@ -527,14 +554,14 @@
         <v>10</v>
       </c>
       <c r="B5" s="3">
-        <f>0.0000000000000004*C5^4-0.00000000002*C5^3+0.0000003*C5^2+0.0014*C5</f>
+        <f t="shared" si="0"/>
         <v>55.499991838951814</v>
       </c>
       <c r="C5" s="1">
         <v>21509.105144900179</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>199.79997062022653</v>
       </c>
     </row>
@@ -543,14 +570,14 @@
         <v>11</v>
       </c>
       <c r="B6" s="3">
-        <f>0.0000000000000004*C6^4-0.00000000002*C6^3+0.0000003*C6^2+0.0014*C6</f>
+        <f t="shared" si="0"/>
         <v>35.500000717566145</v>
       </c>
       <c r="C6" s="1">
         <v>12659.922108296752</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>127.80000258323813</v>
       </c>
       <c r="G6" t="s">
@@ -562,14 +589,14 @@
         <v>12</v>
       </c>
       <c r="B7" s="3">
-        <f>0.0000000000000004*C7^4-0.00000000002*C7^3+0.0000003*C7^2+0.0014*C7</f>
+        <f t="shared" si="0"/>
         <v>11.999999895086336</v>
       </c>
       <c r="C7" s="1">
         <v>4919.2264814302798</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43.199999622310813</v>
       </c>
       <c r="G7" t="s">
@@ -581,14 +608,14 @@
         <v>3</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" ref="B8:B14" si="1">0.0000000000000004*C8^4-0.00000000002*C8^3+0.0000003*C8^2+0.0014*C8</f>
+        <f t="shared" ref="B8:B14" si="2">0.0000000000000004*C8^4-0.00000000002*C8^3+0.0000003*C8^2+0.0014*C8</f>
         <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -615,53 +642,53 @@
         <v>22</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.000006129109416</v>
       </c>
       <c r="C11" s="1">
         <v>4262.0620043164972</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36.000022064793896</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.9999960571269924</v>
       </c>
       <c r="C12" s="1">
         <v>2469.3000326678539</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.999985805657172</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8464</v>
       </c>
       <c r="C13" s="1">
         <v>2000</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.84704</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6803999999999999</v>
       </c>
       <c r="C14" s="1">
         <v>1000</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.0494399999999997</v>
       </c>
     </row>
@@ -684,14 +711,14 @@
         <v>0</v>
       </c>
       <c r="B17" s="2">
-        <f>0.0000000000000004*C17^4-0.00000000002*C17^3+0.0000003*C17^2+0.0014*C17</f>
+        <f t="shared" ref="B17:B22" si="3">0.0000000000000004*C17^4-0.00000000002*C17^3+0.0000003*C17^2+0.0014*C17</f>
         <v>1.6803999999999999</v>
       </c>
       <c r="C17">
         <v>1000</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" ref="D17:D22" si="2">B17/10*36</f>
+        <f t="shared" ref="D17:D22" si="4">B17/10*36</f>
         <v>6.0494399999999997</v>
       </c>
     </row>
@@ -700,14 +727,14 @@
         <v>1</v>
       </c>
       <c r="B18" s="2">
-        <f>0.0000000000000004*C18^4-0.00000000002*C18^3+0.0000003*C18^2+0.0014*C18</f>
+        <f t="shared" si="3"/>
         <v>0.52589850250000003</v>
       </c>
       <c r="C18">
         <v>350</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.8932346090000001</v>
       </c>
     </row>
@@ -716,14 +743,14 @@
         <v>2</v>
       </c>
       <c r="B19" s="2">
-        <f>0.0000000000000004*C19^4-0.00000000002*C19^3+0.0000003*C19^2+0.0014*C19</f>
+        <f t="shared" si="3"/>
         <v>0.14298003999999997</v>
       </c>
       <c r="C19">
         <v>100</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.51472814399999989</v>
       </c>
     </row>
@@ -732,14 +759,14 @@
         <v>3</v>
       </c>
       <c r="B20" s="2">
-        <f>0.0000000000000004*C20^4-0.00000000002*C20^3+0.0000003*C20^2+0.0014*C20</f>
+        <f t="shared" si="3"/>
         <v>7.074750249999999E-2</v>
       </c>
       <c r="C20">
         <v>50</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.25469100899999997</v>
       </c>
     </row>
@@ -748,14 +775,14 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <f>0.0000000000000004*C21^4-0.00000000002*C21^3+0.0000003*C21^2+0.0014*C21</f>
+        <f t="shared" si="3"/>
         <v>3.5187187656249994E-2</v>
       </c>
       <c r="C21">
         <v>25</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.12667387556249998</v>
       </c>
     </row>
@@ -764,14 +791,14 @@
         <v>5</v>
       </c>
       <c r="B22" s="2">
-        <f>0.0000000000000004*C22^4-0.00000000002*C22^3+0.0000003*C22^2+0.0014*C22</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -779,16 +806,155 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E26" s="2"/>
+      <c r="B26" s="3">
+        <f>0.0000000000000004*C26^4-0.00000000002*C26^3+0.0000003*C26^2+0.0014*C26</f>
+        <v>10.000006129109416</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4262.0620043164972</v>
+      </c>
+      <c r="D26" s="1">
+        <f>B26/10*36</f>
+        <v>36.000022064793896</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3">
+        <f t="shared" ref="B27:B28" si="5">0.0000000000000004*C27^4-0.00000000002*C27^3+0.0000003*C27^2+0.0014*C27</f>
+        <v>27.777776567244967</v>
+      </c>
+      <c r="C27" s="1">
+        <v>9926.0343970869108</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" ref="D27:D28" si="6">B27/10*36</f>
+        <v>99.999995642081871</v>
+      </c>
       <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="3">
+        <f t="shared" si="5"/>
+        <v>13.888887011903607</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5523.9076592017927</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="6"/>
+        <v>49.999993242852987</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="3">
+        <f t="shared" ref="B29" si="7">0.0000000000000004*C29^4-0.00000000002*C29^3+0.0000003*C29^2+0.0014*C29</f>
+        <v>6.944445289825163</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3202.1253045410167</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" ref="D29" si="8">B29/10*36</f>
+        <v>25.000003043370587</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="3">
+        <f t="shared" ref="B30:B33" si="9">0.0000000000000004*C30^4-0.00000000002*C30^3+0.0000003*C30^2+0.0014*C30</f>
+        <v>4.1666664099092836</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2133.5653677344217</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" ref="D30:D33" si="10">B30/10*36</f>
+        <v>14.999999075673422</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="3">
+        <f t="shared" si="9"/>
+        <v>2.7777751917535207</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1531.3486233887518</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="10"/>
+        <v>9.999990690312675</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="3">
+        <f t="shared" si="9"/>
+        <v>1.3888462038007492</v>
+      </c>
+      <c r="C32" s="1">
+        <v>846.87703853117148</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="10"/>
+        <v>4.9998463336826973</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
